--- a/testCase/163WebMail/main.xlsx
+++ b/testCase/163WebMail/main.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="23" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置登录密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,6 +325,25 @@
   </si>
   <si>
     <t>maomingtest@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step11</t>
+  </si>
+  <si>
+    <t>窗口最大化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIndowMaxSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,6 +696,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" indent="1"/>
     </xf>
@@ -698,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,32 +1062,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1208,7 +1223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1220,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>15</v>
@@ -1237,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -1254,10 +1271,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
@@ -1265,13 +1282,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1309,27 +1326,27 @@
         <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1342,12 +1359,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,65 +1414,63 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>43</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F2" s="33"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -1463,137 +1478,139 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>46</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
+      <c r="H6" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
@@ -1601,46 +1618,67 @@
       <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
+      <c r="E10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="6">
+        <v>54</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="Login!A1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId1" location="Login!A1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/testCase/163WebMail/main.xlsx
+++ b/testCase/163WebMail/main.xlsx
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,14 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recipients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maomingtest@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆163网页模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +247,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,6 +328,22 @@
   </si>
   <si>
     <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${recipients}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>15</v>
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
@@ -1282,13 +1282,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1326,27 +1326,27 @@
         <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -1364,7 +1364,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1414,16 +1414,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="33"/>
       <c r="G2" s="3"/>
@@ -1435,19 +1435,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1458,19 +1458,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
@@ -1481,16 +1481,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
@@ -1504,25 +1504,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>45</v>
+      <c r="H6" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1531,25 +1531,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1558,19 +1558,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
@@ -1583,25 +1583,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -1610,16 +1610,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="3"/>
@@ -1631,19 +1631,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
@@ -1656,16 +1656,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6">
         <v>5</v>
@@ -1678,9 +1678,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" location="Login!A1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>